--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_20_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_20_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01460158781558758</v>
       </c>
       <c r="F2" t="n">
-        <v>293.7600636044896</v>
+        <v>289.6930002556438</v>
       </c>
       <c r="G2" t="n">
-        <v>20.13328657940006</v>
+        <v>14.51697500019961</v>
       </c>
       <c r="H2" t="n">
-        <v>575.2860088420915</v>
+        <v>569.0608923223175</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3524667652598111</v>
+        <v>0.3442065046112412</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004889222831788362</v>
+        <v>0.0006744794686918514</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7984420453961448</v>
+        <v>0.789302625848648</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1901248585780739</v>
+        <v>0.1882169879485058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006418586206925787</v>
+        <v>0.00546515762386496</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3860873877349297</v>
+        <v>0.3847699617732647</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008208621901252787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003165784423917284</v>
+        <v>0.003186089171715058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001700857898316129</v>
+        <v>0.00170688523894819</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004681515692464941</v>
+        <v>0.004712686832480318</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002924020972191871</v>
+        <v>0.002943082152674318</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001561006918374657</v>
+        <v>0.001567559644537148</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004329969935611471</v>
+        <v>0.004359969912517357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003279884454651973</v>
+        <v>0.003300592669246733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001799299061862785</v>
+        <v>0.001805281514600336</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004811985665358117</v>
+        <v>0.004843888341234185</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.01542245000571286</v>
       </c>
       <c r="F4" t="n">
-        <v>293.7632293889135</v>
+        <v>289.6961863448155</v>
       </c>
       <c r="G4" t="n">
-        <v>20.13498743729837</v>
+        <v>14.51868188543856</v>
       </c>
       <c r="H4" t="n">
-        <v>575.290690357784</v>
+        <v>569.06560500915</v>
       </c>
       <c r="I4" t="n">
-        <v>0.355390786232003</v>
+        <v>0.3471495867639156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002049929201553493</v>
+        <v>0.002242039113228999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8027720153317564</v>
+        <v>0.7936625957611653</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1934047430327259</v>
+        <v>0.1915175806177525</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008217885268788572</v>
+        <v>0.007270439138465296</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3908993734002877</v>
+        <v>0.3896138501144989</v>
       </c>
     </row>
   </sheetData>
